--- a/nav-formula-equation.xlsx
+++ b/nav-formula-equation.xlsx
@@ -9,15 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="845" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
+    <sheet name="Conditionals" sheetId="2" r:id="rId2"/>
+    <sheet name="Function" sheetId="3" r:id="rId3"/>
+    <sheet name="GeneratePlots" sheetId="4" r:id="rId4"/>
+    <sheet name="SolveEquations" sheetId="5" r:id="rId5"/>
+    <sheet name="DataAnalysis" sheetId="6" r:id="rId6"/>
+    <sheet name="DataRegression" sheetId="7" r:id="rId7"/>
+    <sheet name="Optimization" sheetId="8" r:id="rId8"/>
+    <sheet name="VBA_Macros" sheetId="9" r:id="rId9"/>
+    <sheet name="DynamicsSimulation" sheetId="10" r:id="rId10"/>
+    <sheet name="Review" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="alpha">Sheet1!$B$7</definedName>
-    <definedName name="beta">Sheet1!$B$8</definedName>
-    <definedName name="gamma">Sheet1!$B$9</definedName>
+    <definedName name="alpha">Introduction!$B$7</definedName>
+    <definedName name="beta">Introduction!$B$8</definedName>
+    <definedName name="gamma">Introduction!$B$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>navigation-formula-equation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ctrl+Up/Down/Left/Right</t>
   </si>
@@ -53,14 +60,28 @@
   </si>
   <si>
     <t>2x3^4</t>
+  </si>
+  <si>
+    <t>Navigation-Formula-Equation</t>
+  </si>
+  <si>
+    <t>Add Microsoft Excel Solver for Optimization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,8 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,30 +397,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -403,7 +428,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -411,7 +436,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -419,7 +444,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <f>alpha*beta^gamma</f>
@@ -427,11 +452,158 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nav-formula-equation.xlsx
+++ b/nav-formula-equation.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub1\optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub1\optimization_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="845" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="935" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
+    <sheet name="Intro" sheetId="1" r:id="rId1"/>
     <sheet name="Conditionals" sheetId="2" r:id="rId2"/>
     <sheet name="Function" sheetId="3" r:id="rId3"/>
     <sheet name="GeneratePlots" sheetId="4" r:id="rId4"/>
@@ -25,9 +25,9 @@
     <sheet name="Review" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="alpha">Introduction!$B$7</definedName>
-    <definedName name="beta">Introduction!$B$8</definedName>
-    <definedName name="gamma">Introduction!$B$9</definedName>
+    <definedName name="alpha">Intro!$B$7</definedName>
+    <definedName name="beta">Intro!$B$8</definedName>
+    <definedName name="gamma">Intro!$B$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +576,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/nav-formula-equation.xlsx
+++ b/nav-formula-equation.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub1\optimization_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="935" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="616" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Ctrl+Up/Down/Left/Right</t>
   </si>
@@ -65,14 +65,125 @@
     <t>Navigation-Formula-Equation</t>
   </si>
   <si>
-    <t>Add Microsoft Excel Solver for Optimization</t>
+    <r>
+      <t xml:space="preserve">Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft Excel Solver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Optimization</t>
+    </r>
+  </si>
+  <si>
+    <t>Nonlinear Programming with Excel</t>
+  </si>
+  <si>
+    <t>x1*x4*(x1+x2+x3) + x3</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>x1*x2*x3*x4 &gt; 25</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>x1^2+x2^2+x3^2+x4^2 = 40</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Exercise [https://apmonitor.com/che263/index.php/Main/ExcelSolver]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">File </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>→ Options → Add-ins → Manage (Choose: Solver Add-in) → Go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on Solver Add-In</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +199,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -105,15 +254,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -130,6 +432,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336096</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="2917" t="18366" r="66260" b="30616"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312964" y="1496785"/>
+          <a:ext cx="4014107" cy="2748643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="190500" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,6 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -464,6 +839,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -478,6 +854,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -492,6 +869,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -506,6 +884,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -520,6 +899,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -534,6 +914,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -548,6 +929,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -562,6 +944,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -576,29 +959,172 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="11"/>
+      <c r="K22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="11"/>
+      <c r="K25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="13">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
